--- a/Files/Bug Report.xlsx
+++ b/Files/Bug Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Severity</t>
   </si>
@@ -54,13 +54,41 @@
     <t xml:space="preserve">All tests are executed correctly. </t>
   </si>
   <si>
-    <t>Test failed and error appears.</t>
-  </si>
-  <si>
     <t>Attachement</t>
   </si>
   <si>
     <t>Test on method "testWriteTexttoFileWithAppend" failed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Additional information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Error occors because in method WriteTexttoFile in class FileManagerService transfer to new line isn't written.</t>
+  </si>
+  <si>
+    <t>Test failed and error appears. Program gives needed result as error.</t>
   </si>
 </sst>
 </file>
@@ -140,7 +168,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -459,15 +487,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="149.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -476,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -508,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -529,7 +557,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
